--- a/html/resources/ioaConditions/test3Conditions.xlsx
+++ b/html/resources/ioaConditions/test3Conditions.xlsx
@@ -31,490 +31,490 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/69_kotota3.wav</t>
+    <t>novelaudio/65_totipo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
   </si>
   <si>
     <t>novelaudio/45_totaka1.wav</t>
   </si>
   <si>
-    <t>novelaudio/48_pakipa3.wav</t>
+    <t>novelaudio/58_kipoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
   </si>
   <si>
     <t>novelaudio/36_pipapa3.wav</t>
   </si>
   <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
   </si>
   <si>
     <t>novelaudio/73_takiti2.wav</t>
   </si>
   <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
+    <t>novelaudio/40_kototi3.wav</t>
   </si>
   <si>
     <t>novelaudio/76_patoti1.wav</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
+    <t>pngimages/65_wrench.png</t>
+  </si>
+  <si>
+    <t>pngimages/68_heart.png</t>
+  </si>
+  <si>
+    <t>pngimages/49_calculator.png</t>
+  </si>
+  <si>
+    <t>pngimages/45_scissors.png</t>
+  </si>
+  <si>
+    <t>pngimages/58_nail.png</t>
+  </si>
+  <si>
+    <t>pngimages/31_tomato.png</t>
+  </si>
+  <si>
+    <t>pngimages/46_paper.png</t>
+  </si>
+  <si>
+    <t>pngimages/33_watermelon.png</t>
+  </si>
+  <si>
+    <t>pngimages/29_cherry.png</t>
+  </si>
+  <si>
+    <t>pngimages/41_piano.png</t>
+  </si>
+  <si>
+    <t>pngimages/67_laptop.png</t>
+  </si>
+  <si>
+    <t>pngimages/43_guitar.png</t>
   </si>
   <si>
     <t>pngimages/69_tooth.png</t>
   </si>
   <si>
-    <t>pngimages/45_scissors.png</t>
+    <t>pngimages/79_pig.png</t>
+  </si>
+  <si>
+    <t>pngimages/44_envelope.png</t>
+  </si>
+  <si>
+    <t>pngimages/80_dog.png</t>
+  </si>
+  <si>
+    <t>pngimages/55_toilet.png</t>
+  </si>
+  <si>
+    <t>pngimages/72_nose.png</t>
+  </si>
+  <si>
+    <t>pngimages/62_screwdriver.png</t>
+  </si>
+  <si>
+    <t>pngimages/35_skillet.png</t>
+  </si>
+  <si>
+    <t>pngimages/50_ruler.png</t>
+  </si>
+  <si>
+    <t>pngimages/59_umbrella.png</t>
+  </si>
+  <si>
+    <t>pngimages/47_notebook.png</t>
+  </si>
+  <si>
+    <t>pngimages/28_grape.png</t>
+  </si>
+  <si>
+    <t>pngimages/64_shovel.png</t>
+  </si>
+  <si>
+    <t>pngimages/34_knife.png</t>
   </si>
   <si>
     <t>pngimages/48_brush.png</t>
   </si>
   <si>
+    <t>pngimages/56_towel.png</t>
+  </si>
+  <si>
+    <t>pngimages/81_cat.png</t>
+  </si>
+  <si>
+    <t>pngimages/32_greenpepper.png</t>
+  </si>
+  <si>
+    <t>pngimages/57_flashlight.png</t>
+  </si>
+  <si>
+    <t>pngimages/78_cow.png</t>
+  </si>
+  <si>
+    <t>pngimages/61_key.png</t>
+  </si>
+  <si>
+    <t>pngimages/37_mug.png</t>
+  </si>
+  <si>
+    <t>pngimages/39_fork.png</t>
+  </si>
+  <si>
+    <t>pngimages/51_pencil.png</t>
+  </si>
+  <si>
     <t>pngimages/36_microwave.png</t>
   </si>
   <si>
-    <t>pngimages/41_piano.png</t>
-  </si>
-  <si>
-    <t>pngimages/78_cow.png</t>
-  </si>
-  <si>
-    <t>pngimages/79_pig.png</t>
+    <t>pngimages/53_hammer.png</t>
+  </si>
+  <si>
+    <t>pngimages/38_plate.png</t>
+  </si>
+  <si>
+    <t>pngimages/74_boat.png</t>
+  </si>
+  <si>
+    <t>pngimages/63_chair.png</t>
+  </si>
+  <si>
+    <t>pngimages/77_bear.png</t>
+  </si>
+  <si>
+    <t>pngimages/52_newspaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/30_mushroom.png</t>
+  </si>
+  <si>
+    <t>pngimages/70_hand.png</t>
+  </si>
+  <si>
+    <t>pngimages/60_firewood.png</t>
+  </si>
+  <si>
+    <t>pngimages/75_chicken.png</t>
+  </si>
+  <si>
+    <t>pngimages/54_toiletpaper.png</t>
+  </si>
+  <si>
+    <t>pngimages/71_eye.png</t>
+  </si>
+  <si>
+    <t>pngimages/42_harp.png</t>
   </si>
   <si>
     <t>pngimages/66_safe.png</t>
   </si>
   <si>
-    <t>pngimages/49_calculator.png</t>
-  </si>
-  <si>
     <t>pngimages/73_car.png</t>
   </si>
   <si>
-    <t>pngimages/55_toilet.png</t>
-  </si>
-  <si>
-    <t>pngimages/62_screwdriver.png</t>
-  </si>
-  <si>
-    <t>pngimages/43_guitar.png</t>
-  </si>
-  <si>
-    <t>pngimages/63_chair.png</t>
-  </si>
-  <si>
-    <t>pngimages/59_umbrella.png</t>
-  </si>
-  <si>
-    <t>pngimages/68_heart.png</t>
-  </si>
-  <si>
-    <t>pngimages/81_cat.png</t>
-  </si>
-  <si>
-    <t>pngimages/37_mug.png</t>
-  </si>
-  <si>
-    <t>pngimages/38_plate.png</t>
-  </si>
-  <si>
-    <t>pngimages/72_nose.png</t>
-  </si>
-  <si>
-    <t>pngimages/64_shovel.png</t>
-  </si>
-  <si>
-    <t>pngimages/60_firewood.png</t>
+    <t>pngimages/40_spoon.png</t>
   </si>
   <si>
     <t>pngimages/76_rabbit.png</t>
-  </si>
-  <si>
-    <t>pngimages/65_wrench.png</t>
-  </si>
-  <si>
-    <t>pngimages/39_fork.png</t>
-  </si>
-  <si>
-    <t>pngimages/80_dog.png</t>
-  </si>
-  <si>
-    <t>pngimages/28_grape.png</t>
-  </si>
-  <si>
-    <t>pngimages/75_chicken.png</t>
-  </si>
-  <si>
-    <t>pngimages/56_towel.png</t>
-  </si>
-  <si>
-    <t>pngimages/34_knife.png</t>
-  </si>
-  <si>
-    <t>pngimages/35_skillet.png</t>
-  </si>
-  <si>
-    <t>pngimages/54_toiletpaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/30_mushroom.png</t>
-  </si>
-  <si>
-    <t>pngimages/70_hand.png</t>
-  </si>
-  <si>
-    <t>pngimages/33_watermelon.png</t>
-  </si>
-  <si>
-    <t>pngimages/42_harp.png</t>
-  </si>
-  <si>
-    <t>pngimages/52_newspaper.png</t>
-  </si>
-  <si>
-    <t>pngimages/77_bear.png</t>
-  </si>
-  <si>
-    <t>pngimages/47_notebook.png</t>
-  </si>
-  <si>
-    <t>pngimages/71_eye.png</t>
-  </si>
-  <si>
-    <t>pngimages/74_boat.png</t>
-  </si>
-  <si>
-    <t>pngimages/46_paper.png</t>
-  </si>
-  <si>
-    <t>pngimages/31_tomato.png</t>
-  </si>
-  <si>
-    <t>pngimages/58_nail.png</t>
-  </si>
-  <si>
-    <t>pngimages/53_hammer.png</t>
-  </si>
-  <si>
-    <t>pngimages/40_spoon.png</t>
-  </si>
-  <si>
-    <t>pngimages/32_greenpepper.png</t>
-  </si>
-  <si>
-    <t>pngimages/51_pencil.png</t>
-  </si>
-  <si>
-    <t>pngimages/29_cherry.png</t>
-  </si>
-  <si>
-    <t>pngimages/67_laptop.png</t>
-  </si>
-  <si>
-    <t>pngimages/44_envelope.png</t>
-  </si>
-  <si>
-    <t>pngimages/61_key.png</t>
-  </si>
-  <si>
-    <t>pngimages/50_ruler.png</t>
-  </si>
-  <si>
-    <t>pngimages/57_flashlight.png</t>
   </si>
   <si>
     <t>test3</t>
@@ -909,7 +909,7 @@
         <v>113</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>167</v>
@@ -926,7 +926,7 @@
         <v>114</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>167</v>
@@ -943,7 +943,7 @@
         <v>115</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>167</v>
@@ -960,7 +960,7 @@
         <v>116</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>167</v>
@@ -977,7 +977,7 @@
         <v>117</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>167</v>
@@ -994,7 +994,7 @@
         <v>118</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>167</v>
@@ -1028,7 +1028,7 @@
         <v>120</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>167</v>
@@ -1079,7 +1079,7 @@
         <v>123</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
         <v>167</v>
@@ -1130,7 +1130,7 @@
         <v>126</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>167</v>
@@ -1164,7 +1164,7 @@
         <v>128</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>167</v>
@@ -1181,7 +1181,7 @@
         <v>129</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>167</v>
@@ -1215,7 +1215,7 @@
         <v>131</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>167</v>
@@ -1232,7 +1232,7 @@
         <v>132</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>167</v>
@@ -1249,7 +1249,7 @@
         <v>133</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>167</v>
@@ -1266,7 +1266,7 @@
         <v>134</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>167</v>
@@ -1334,7 +1334,7 @@
         <v>138</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>167</v>
@@ -1351,7 +1351,7 @@
         <v>139</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
         <v>167</v>
@@ -1368,7 +1368,7 @@
         <v>140</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
         <v>167</v>
@@ -1402,7 +1402,7 @@
         <v>142</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>167</v>
@@ -1436,7 +1436,7 @@
         <v>144</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>167</v>
@@ -1470,7 +1470,7 @@
         <v>146</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
         <v>167</v>
@@ -1504,7 +1504,7 @@
         <v>148</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
         <v>167</v>
@@ -1572,7 +1572,7 @@
         <v>152</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>167</v>
@@ -1606,7 +1606,7 @@
         <v>154</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
         <v>167</v>
@@ -1623,7 +1623,7 @@
         <v>155</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>167</v>
@@ -1657,7 +1657,7 @@
         <v>157</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1674,7 +1674,7 @@
         <v>158</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>167</v>
@@ -1691,7 +1691,7 @@
         <v>159</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
         <v>167</v>
@@ -1725,7 +1725,7 @@
         <v>161</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
         <v>167</v>
@@ -1742,7 +1742,7 @@
         <v>162</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>167</v>
@@ -1776,7 +1776,7 @@
         <v>164</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
         <v>167</v>
@@ -1793,7 +1793,7 @@
         <v>165</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
         <v>167</v>
@@ -1810,7 +1810,7 @@
         <v>166</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>167</v>

--- a/html/resources/ioaConditions/test3Conditions.xlsx
+++ b/html/resources/ioaConditions/test3Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.wav</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.wav</t>
+    <t>novelaudio/65_totipo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi3.mp3</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.mp3</t>
   </si>
   <si>
     <t>pngimages/65_wrench.png</t>

--- a/html/resources/ioaConditions/test3Conditions.xlsx
+++ b/html/resources/ioaConditions/test3Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.mp3</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.mp3</t>
+    <t>novelaudio/65_totipo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi3.ogg</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.ogg</t>
   </si>
   <si>
     <t>pngimages/65_wrench.png</t>

--- a/html/resources/ioaConditions/test3Conditions.xlsx
+++ b/html/resources/ioaConditions/test3Conditions.xlsx
@@ -31,328 +31,328 @@
     <t>currentPhase</t>
   </si>
   <si>
-    <t>novelaudio/65_totipo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/65_totipo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/68_pokopo1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/49_tatopi2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/45_totaka3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/58_kipoki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/31_kikopi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/46_tapiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/33_tipoka3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/29_pipito2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/41_pototo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/67_tokoki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/43_potaki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/69_kotota1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/79_katapi1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/44_pokato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/80_tatato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/55_pikiki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/72_topata1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/62_pitako1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/35_titato3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/50_katoko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/59_tipoko3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/47_takiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/28_pipiki1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/64_popiti1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/34_kipaki3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/48_pakipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/56_pipiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/81_kakapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/32_kipoto3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/57_tipipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/78_kakoka2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/61_pikati1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/37_kokiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/39_kotipa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/51_tapopa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/36_pipapa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/53_patapo3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/38_kokiko2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/74_tatiko1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/63_pitapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/77_takopo2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/52_pakaki2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/30_tikipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/70_kopati3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/60_pipopa2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/75_kakita2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/54_kapapa1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/71_kotato1.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/42_tokota2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/66_kopipa3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/73_takiti2.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/40_kototi3.ogg</t>
-  </si>
-  <si>
-    <t>novelaudio/76_patoti1.ogg</t>
+    <t>novelaudio/65_totipo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/65_totipo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/68_pokopo1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/49_tatopi2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/45_totaka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/58_kipoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/31_kikopi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/46_tapiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/33_tipoka3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/29_pipito2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/41_pototo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/67_tokoki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/43_potaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/69_kotota1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/79_katapi1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/44_pokato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/80_tatato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/55_pikiki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/72_topata1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/62_pitako1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/35_titato3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/50_katoko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/59_tipoko3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/47_takiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/28_pipiki1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/64_popiti1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/34_kipaki3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/48_pakipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/56_pipiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/81_kakapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/32_kipoto3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/57_tipipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/78_kakoka2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/61_pikati1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/37_kokiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/39_kotipa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/51_tapopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/36_pipapa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/53_patapo3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/38_kokiko2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/74_tatiko1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/63_pitapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/77_takopo2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/52_pakaki2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/30_tikipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/70_kopati3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/60_pipopa2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/75_kakita2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/54_kapapa1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/71_kotato1.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/42_tokota2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/66_kopipa3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/73_takiti2.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/40_kototi3.wav</t>
+  </si>
+  <si>
+    <t>novelaudio/76_patoti1.wav</t>
   </si>
   <si>
     <t>pngimages/65_wrench.png</t>
